--- a/biology/Zoologie/Geai_vert/Geai_vert.xlsx
+++ b/biology/Zoologie/Geai_vert/Geai_vert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanocorax yncas
 Le Geai vert (Cyanocorax yncas) est une espèce américaine de passereau de la famille des Corvidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce présente une taille assez petite. Son plumage est vert jaunâtre ou vert pâle. La principale caractéristique est constituée par les rectrices externes jaunes bien visibles en vol.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Geai vert se trouve uniquement sur le continent américain, dans deux zones distinctes : entre le Honduras et le Sud du Texas et la partie nord de la cordillère des Andes.
 Il niche principalement dans les forêts.
@@ -575,7 +591,9 @@
           <t>Longévité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut vivre jusqu'à 25 ans.
 </t>
@@ -606,7 +624,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les geais verts sont omnivores et mangent principalement des invertébrés (coléoptères, vers de terre, sauterelles), des œufs de lézards, des fruits (glands et les fruits des palmiers nains) et des graines et probablement de petits oiseaux.
 </t>
@@ -637,7 +657,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Madge S. &amp; Burn H. : Corbeaux et Geais. Guide des Corbeaux, Geais et Pies du monde entier. Vigot, Paris, 1996, 184 p.
 </t>
